--- a/data/income_statement/2digits/size/59_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/59_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>608369.7531399999</v>
+        <v>534874.4341000001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>761574.27316</v>
+        <v>709056.62174</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1105307.94931</v>
+        <v>1043040.36748</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1384462.65643</v>
+        <v>1336222.74732</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1209208.78937</v>
+        <v>1119182.82629</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1590909.6535</v>
+        <v>1504035.46031</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1865104.70976</v>
+        <v>1684988.67216</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1842458.52527</v>
+        <v>1722760.9983</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2734289.23487</v>
+        <v>2538210.56243</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2483625.02002</v>
+        <v>2461980.14031</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1981817.08069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1926203.5391</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1582922.85</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>584956.8432</v>
+        <v>513689.53258</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>745763.02428</v>
+        <v>694735.94952</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1061544.8354</v>
+        <v>1004720.9318</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1318879.45157</v>
+        <v>1274419.67362</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1142245.00248</v>
+        <v>1061563.20217</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1511668.43593</v>
+        <v>1426323.04956</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1764523.66747</v>
+        <v>1590733.0538</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1671875.85318</v>
+        <v>1558074.24894</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2372803.66618</v>
+        <v>2184911.77828</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2182637.88589</v>
+        <v>2161470.0426</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1740252.48555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1728771.04201</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1289279.378</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>16904.62486</v>
+        <v>14810.49161</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6426.77458</v>
+        <v>4981.055230000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>37705.25172</v>
+        <v>32643.73623</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>53587.37707</v>
+        <v>50840.7558</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>55215.51243</v>
+        <v>47043.28522</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>70033.73752</v>
+        <v>69666.89718</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>87961.06534</v>
+        <v>83560.74617</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>156318.53767</v>
+        <v>151758.55676</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>332906.40758</v>
+        <v>326067.68095</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>253564.40502</v>
+        <v>253107.74936</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>208388.78172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>165928.11391</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>276386.787</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6508.28508</v>
+        <v>6374.40991</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9384.4743</v>
+        <v>9339.61699</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6057.862190000001</v>
+        <v>5675.69945</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11995.82779</v>
+        <v>10962.3179</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11748.27446</v>
+        <v>10576.3389</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9207.48005</v>
+        <v>8045.51357</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>12619.97695</v>
+        <v>10694.87219</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>14264.13442</v>
+        <v>12928.1926</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>28579.16111</v>
+        <v>27231.1032</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>47422.72911</v>
+        <v>47402.34835</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>33175.81342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31504.38318</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>17256.685</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>17585.19127</v>
+        <v>16939.13485</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>18291.37128</v>
+        <v>18004.57181</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>19181.78017</v>
+        <v>18913.70192</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>21899.19654</v>
+        <v>21693.34792</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>25280.53363</v>
+        <v>25239.67595</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>23611.66118</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>27353.40945</v>
+        <v>21422.81221</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>34567.41298</v>
+        <v>30109.33365</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>48857.71543</v>
+        <v>39952.08739</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>44328.11815</v>
+        <v>44067.69527</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>17400.74083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17389.81535</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22118.29</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>17187.07976</v>
+        <v>16762.43754</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>18150.33541</v>
+        <v>17863.53594</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>19059.63217</v>
+        <v>18791.74768</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>21850.67005</v>
+        <v>21644.82143</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>25075.99158</v>
+        <v>25035.1339</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>19817.81195</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>25153.38673</v>
+        <v>21422.81221</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>32808.61906</v>
+        <v>30109.33365</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>46525.68622</v>
+        <v>37620.06133999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>44328.11815</v>
+        <v>44067.69527</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17400.74083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17389.81535</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>22118.29</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>176.69731</v>
@@ -1190,7 +1126,7 @@
         <v>141.03587</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>122.148</v>
+        <v>121.95424</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>48.52649</v>
@@ -1202,13 +1138,13 @@
         <v>1243.05923</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1550.02272</v>
+        <v>0</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1758.79392</v>
+        <v>0</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1928.13928</v>
+        <v>1928.13612</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>0</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>221.4142</v>
+        <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0</v>
@@ -1241,7 +1182,7 @@
         <v>2550.79</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>590784.56187</v>
+        <v>517935.29925</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>743282.90188</v>
+        <v>691052.04993</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1086126.16914</v>
+        <v>1024126.66556</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1362563.45989</v>
+        <v>1314529.3994</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1183928.25574</v>
+        <v>1093943.15034</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1567297.99232</v>
+        <v>1480423.79913</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1837751.30031</v>
+        <v>1663565.85995</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1807891.11229</v>
+        <v>1692651.66465</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2685431.51944</v>
+        <v>2498258.47504</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2439296.90187</v>
+        <v>2417912.44504</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1964416.33986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1908813.72375</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1560804.56</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>492729.1273</v>
+        <v>425502.3971</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>610289.07096</v>
+        <v>566958.01601</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>858373.77257</v>
+        <v>805680.1177000001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>982652.88234</v>
+        <v>956663.0820000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>891700.53198</v>
+        <v>829642.9976</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1170702.13129</v>
+        <v>1116397.95912</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1323209.60609</v>
+        <v>1216467.30778</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1365402.12212</v>
+        <v>1290236.94209</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2081150.46849</v>
+        <v>1950480.91143</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1857643.30011</v>
+        <v>1839481.88951</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1505843.25521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1471070.69001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1117758.338</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12149.71384</v>
@@ -1358,106 +1314,121 @@
         <v>531.5321300000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6026.47518</v>
+        <v>442.8262</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7428.00028</v>
+        <v>307.17258</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>79339.31533</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>435.37724</v>
+        <v>0</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>25374.49251</v>
+        <v>24834.53249</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>32817.33152</v>
+        <v>29689.18824</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>33552.0806</v>
+        <v>30635.43387</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>39428.55367</v>
+        <v>36261.34647</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>35218.03781</v>
+        <v>33899.25161</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>97633.75149</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>150083.76022</v>
+        <v>134011.7873</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>142373.5946</v>
+        <v>134608.1969</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>278942.62687</v>
+        <v>236355.41847</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>190185.46195</v>
+        <v>190124.22706</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>135338.56294</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>73349.85799999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>443582.40533</v>
+        <v>388433.28613</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>566573.03919</v>
+        <v>526370.12752</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>818153.29597</v>
+        <v>768376.28783</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>920053.9991499999</v>
+        <v>897231.40601</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>854435.26174</v>
+        <v>794981.27907</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1072512.49325</v>
+        <v>1018208.32108</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1167071.67245</v>
+        <v>1081984.99604</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1213668.58391</v>
+        <v>1153389.62928</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1720852.22373</v>
+        <v>1632769.87507</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1458060.58654</v>
+        <v>1440395.78807</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1370446.76164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1335674.19644</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1044408.48</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11622.51562</v>
+        <v>84.86463999999999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>0</v>
@@ -1469,7 +1440,7 @@
         <v>11.07594</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1391.19758</v>
+        <v>106.43207</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>24.35442</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>57.93063</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>98055.43457</v>
+        <v>92432.90215000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>132993.83092</v>
+        <v>124094.03392</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>227752.39657</v>
+        <v>218446.54786</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>379910.57755</v>
+        <v>357866.3174</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>292227.72376</v>
+        <v>264300.15274</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>396595.86103</v>
+        <v>364025.84001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>514541.6942199999</v>
+        <v>447098.55217</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>442488.99017</v>
+        <v>402414.72256</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>604281.0509500001</v>
+        <v>547777.5636100001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>581653.60176</v>
+        <v>578430.55553</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>458573.08465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>437743.03374</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>443046.222</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>72057.70742999999</v>
+        <v>62953.40031</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>96014.98476000001</v>
+        <v>81715.03405</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>127259.5612</v>
+        <v>92272.78289</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>148912.26838</v>
+        <v>126843.78087</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>146761.86256</v>
+        <v>115454.01329</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>171134.87105</v>
+        <v>144467.9771</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>210979.64849</v>
+        <v>154071.86005</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>242302.98375</v>
+        <v>202646.54576</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>319549.28932</v>
+        <v>238568.51012</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>262525.02741</v>
+        <v>257677.32055</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>285764.63126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>270883.84606</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>282829.982</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>56.17573</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>39595.739</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>30165.34547</v>
+        <v>28871.06793</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>38480.82601</v>
+        <v>36539.33455</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>28139.29059</v>
+        <v>27300.14313</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>29949.11787</v>
+        <v>29624.4492</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>33501.59483</v>
+        <v>29977.29323</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>29224.88738</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>38278.78765</v>
+        <v>25234.99203</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>41690.92844</v>
+        <v>28404.12665</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>58326.70168</v>
+        <v>54493.54542</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>35412.06627</v>
+        <v>35216.90639</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>58200.93508</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>24679.258</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>41836.18623000001</v>
+        <v>34026.15665</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>57496.88659</v>
+        <v>45138.42734</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>99109.11807000001</v>
+        <v>64961.48722</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>118963.15051</v>
+        <v>97219.33167</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>113260.26773</v>
+        <v>85476.72006000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>141909.98367</v>
+        <v>115243.08972</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>170932.99218</v>
+        <v>127068.99936</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>178921.96872</v>
+        <v>152552.33252</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>261222.58764</v>
+        <v>184074.9647</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>207415.1599</v>
+        <v>202762.61292</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>227563.69618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>212682.91098</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>218554.985</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>25997.72714</v>
+        <v>29479.50184</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>36978.84615999999</v>
+        <v>42378.99987</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>100492.83537</v>
+        <v>126173.76497</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>230998.30917</v>
+        <v>231022.53653</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>145465.8612</v>
+        <v>148846.13945</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>225460.98998</v>
+        <v>219557.86291</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>303562.04573</v>
+        <v>293026.69212</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>200186.00642</v>
+        <v>199768.1768</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>284731.76163</v>
+        <v>309209.05349</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>319128.57435</v>
+        <v>320753.23498</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>172808.45339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>166859.18768</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>160216.24</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>49189.72780000001</v>
+        <v>35984.0705</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>45780.68211</v>
+        <v>40040.9382</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>63881.99104</v>
+        <v>55099.78209</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>101438.72759</v>
+        <v>89967.14469</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>108159.17717</v>
+        <v>72829.34440999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>135784.54142</v>
+        <v>101648.05955</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>266919.99881</v>
+        <v>195658.15745</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>279294.4560700001</v>
+        <v>168909.567</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>243446.85267</v>
+        <v>195983.7845</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>474422.44854</v>
+        <v>460932.62843</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>215869.99625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>209683.41454</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>384124.65</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1775,25 +1786,25 @@
         <v>74.43172</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2275.83664</v>
+        <v>171.91028</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>13767.03827</v>
+        <v>11086.43864</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>10200.96711</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9255.32028</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>13991.07464</v>
+        <v>35.47949</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>23160.70227</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3942.96306</v>
+        <v>261.51013</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>2686.85525</v>
@@ -1801,23 +1812,28 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>13.83995</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>191.01018</v>
+        <v>177.17043</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>13.83975</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1840,62 +1856,72 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>37230.977</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1483.71172</v>
+        <v>1088.67838</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3093.58791</v>
+        <v>2711.59354</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7935.27898</v>
+        <v>5528.267019999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11677.70094</v>
+        <v>9774.875769999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12830.73876</v>
+        <v>7764.80167</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>20928.01432</v>
+        <v>11380.9959</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18420.77992</v>
+        <v>5033.94776</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>31570.11905</v>
+        <v>13280.54776</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>39747.74372</v>
+        <v>27070.95989</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>57927.99595</v>
+        <v>55355.08947</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41985.64622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>38491.87604</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>23688.734</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>126.62786</v>
+        <v>54.61748</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2246.22673</v>
+        <v>2240.97673</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>338.74261</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1918,77 +1944,87 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2285.67</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>531.1182</v>
+        <v>102.81296</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>268.16082</v>
+        <v>262.3698</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>841.11243</v>
+        <v>490.79971</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2451.94569</v>
+        <v>2450.6117</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>484.32045</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4122.44688</v>
+        <v>3879.94688</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>67499.75934999999</v>
+        <v>67009.44271999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>302.63849</v>
+        <v>127.67151</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2468.08876</v>
+        <v>2419.53351</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2049.32282</v>
+        <v>1977.74726</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>4738.93124</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2309.269</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>483.31191</v>
+        <v>131.73713</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>370.36267</v>
+        <v>123.80512</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>340.24745</v>
+        <v>326.08609</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>951.8284100000001</v>
+        <v>940.61553</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1930.65313</v>
+        <v>1918.09669</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3630.25096</v>
+        <v>3389.44038</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4727.02601</v>
+        <v>3934.21519</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7533.29781</v>
+        <v>7363.90361</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>432.79488</v>
+        <v>339.44685</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>256.60907</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>148.65456</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>43420.42345</v>
+        <v>31885.66135</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>34875.25566</v>
+        <v>30537.35482</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>44899.29845</v>
+        <v>41582.10927</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>44281.48365</v>
+        <v>38461.40467</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>65560.40104</v>
+        <v>46056.23243</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>85243.94725</v>
+        <v>70447.52709999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>140236.8019</v>
+        <v>100412.05057</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>194884.34164</v>
+        <v>128041.69463</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>184296.71974</v>
+        <v>153756.32345</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>409310.38149</v>
+        <v>399091.87239</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>166861.04559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>164179.7848</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>317178.748</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>605.74062</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>47.79973</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>37.67187999999999</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,155 +2164,175 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2490.99431</v>
+        <v>2114.82258</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4830.23277</v>
+        <v>4081.82259</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7299.57064</v>
+        <v>6723.803019999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>27925.6393</v>
+        <v>27222.68941</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17152.09668</v>
+        <v>16605.89317</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>12604.56173</v>
+        <v>12550.14929</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>22044.55699</v>
+        <v>19233.02172</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>21843.35681</v>
+        <v>20095.74949</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9362.308499999999</v>
+        <v>8977.448539999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1999.08057</v>
+        <v>1372.2516</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2135.71864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2124.1679</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1431.252</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>43903.53447999999</v>
+        <v>32155.77555</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>38955.68436</v>
+        <v>34181.02325999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>66293.818</v>
+        <v>58881.23002</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>38647.62079</v>
+        <v>34907.70342000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>87447.84940000001</v>
+        <v>83809.70637</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>94669.97709</v>
+        <v>86891.6263</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>290853.0151</v>
+        <v>275219.78292</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>165472.30772</v>
+        <v>139027.87657</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>223239.36649</v>
+        <v>220746.01412</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>504504.57609</v>
+        <v>489583.09469</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>210960.82656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>207671.57586</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>533071.613</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3415.28172</v>
+        <v>0</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1597.44187</v>
+        <v>109.84987</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>709.45726</v>
+        <v>0</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1391.64934</v>
+        <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>1056.39852</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1453.00464</v>
+        <v>1384.74509</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14910.02705</v>
+        <v>14091.09788</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5007.53305</v>
+        <v>4809.49636</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>16260.49587</v>
+        <v>15761.56119</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14114.73912</v>
+        <v>14114.62112</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>24163.73351</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>17175.384</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1611.35514</v>
+        <v>1557.61687</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>449.06469</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1210.61548</v>
+        <v>834.29058</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>653.5206999999999</v>
+        <v>632.73918</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2210.85491</v>
+        <v>2210.18386</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>881.7504799999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>72061.32261</v>
+        <v>71708.74245999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5924.828270000001</v>
+        <v>5851.03587</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6629.95367</v>
+        <v>6528.80021</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>6344.1233</v>
@@ -2269,17 +2340,22 @@
       <c r="M38" s="48" t="n">
         <v>2164.00814</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>152787.274</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0.00119</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
@@ -2291,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.7642899999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>12.32926</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>2.33954</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1.02154</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>38815.202</v>
+        <v>30551.51101</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>34106.10401</v>
+        <v>30856.39548</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>63260.56026999999</v>
+        <v>57008.36629</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>36431.54108</v>
+        <v>34132.09113</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>83945.44661</v>
+        <v>80386.70981</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>91709.77365</v>
+        <v>84000.44675</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>160805.98556</v>
+        <v>148566.42757</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>153490.2164</v>
+        <v>128271.35703</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>197470.38939</v>
+        <v>195586.85581</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>484022.12167</v>
+        <v>469121.52438</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>184631.6297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>181342.37905</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>363108.955</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>20.37108</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>41.32454</v>
+        <v>26.27659</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2265.63489</v>
+        <v>2228.27551</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1074.34551</v>
+        <v>999.7336700000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>170.90967</v>
+        <v>142.87311</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>235.14936</v>
+        <v>156.41418</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>624.68403</v>
+        <v>624.68398</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>43075.67988</v>
+        <v>40853.51501</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1037.40074</v>
+        <v>95.98730999999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2876.18802</v>
+        <v>2866.45737</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>23.592</v>
+        <v>2.82589</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>0.43367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.43362</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>37372.43902000001</v>
+        <v>27900.06727</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>38933.3832</v>
+        <v>28364.54732</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>43634.77201</v>
+        <v>26772.30448</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>86043.59868000001</v>
+        <v>81236.1173</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>79264.25291</v>
+        <v>76655.76614000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>48643.99286</v>
+        <v>45506.02392</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>61872.39276</v>
+        <v>55074.87324</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>78373.29384999999</v>
+        <v>74465.49172000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>91493.99962</v>
+        <v>75619.27952</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>127734.17788</v>
+        <v>125412.6416</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>144910.2191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>142598.61688</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>118351.42</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>25858.14853</v>
+        <v>16724.85999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28345.52142</v>
+        <v>18469.56539</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>34944.24451</v>
+        <v>18081.77698</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>68958.92435</v>
+        <v>65065.53446</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>61852.75900999999</v>
+        <v>59244.27224000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>22405.98506</v>
+        <v>20734.21338</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>35424.10954999999</v>
+        <v>29107.04827</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>45232.51696</v>
+        <v>41858.42047</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>73054.26326000001</v>
+        <v>57201.88844</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>102082.13845</v>
+        <v>99760.60217</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>117965.42155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>115653.81933</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>87457.00900000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>11514.29049</v>
+        <v>11175.20728</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>10587.86178</v>
+        <v>9894.98193</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>8690.5275</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>17084.67433</v>
+        <v>16170.58284</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>17411.4939</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26238.0078</v>
+        <v>24771.81054</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>26448.28321</v>
+        <v>25967.82497</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>33140.77689</v>
+        <v>32607.07125</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>18439.73636</v>
+        <v>18417.39108</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>25652.03943</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>26944.79755</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>30894.411</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-6088.51856</v>
+        <v>5407.72952</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4870.46071</v>
+        <v>19874.36749</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>54446.2364</v>
+        <v>95620.01256</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>207745.81729</v>
+        <v>204845.8605</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>86912.93606000001</v>
+        <v>61210.01135</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>217931.56145</v>
+        <v>188808.27224</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>217756.63668</v>
+        <v>158390.19341</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>235634.86092</v>
+        <v>155184.37551</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>213445.24819</v>
+        <v>208827.54435</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>161312.26892</v>
+        <v>166690.12712</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>32807.40398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>26272.40948</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-107082.143</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2386.58155</v>
+        <v>1488.11595</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17421.37047</v>
+        <v>3370.68503</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7953.66033</v>
+        <v>6985.17596</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>36239.66375</v>
+        <v>36080.50168</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13809.54042</v>
+        <v>7098.66868</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11604.45598</v>
+        <v>11169.73735</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25493.75728</v>
+        <v>20871.5232</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8482.623379999999</v>
+        <v>5254.083820000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>41513.91867</v>
+        <v>36491.83308999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10848.07356</v>
+        <v>9955.73712</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14791.67476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14040.848</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7867.315</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>124.84484</v>
@@ -2672,10 +2798,10 @@
         <v>63.95041000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>257.24168</v>
+        <v>257.23525</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>23149.11227</v>
+        <v>23149.00503</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>197.36942</v>
@@ -2684,13 +2810,13 @@
         <v>2.13214</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>61.22976</v>
+        <v>24.48111</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>563.42736</v>
+        <v>89.09305000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>634.8965400000001</v>
+        <v>634.01215</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>1381.38776</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>1249.04142</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>26.587</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2261.73671</v>
+        <v>1363.27111</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17357.42006</v>
+        <v>3306.73462</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7696.418650000001</v>
+        <v>6727.94071</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>13090.55148</v>
+        <v>12931.49665</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13612.171</v>
+        <v>6901.29926</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11602.32384</v>
+        <v>11167.60521</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>25432.52752</v>
+        <v>20847.04209</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7919.19602</v>
+        <v>5164.990769999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>40879.02213</v>
+        <v>35857.82094</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9466.685800000001</v>
+        <v>8574.34936</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13542.63334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>12791.80658</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7840.728</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5806.0667</v>
+        <v>4931.39891</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11183.2929</v>
+        <v>6155.20326</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>132130.47771</v>
+        <v>129823.98971</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>17538.92276</v>
+        <v>17287.763</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>36261.02941</v>
+        <v>34742.58616</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18479.70722</v>
+        <v>18061.61174</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19544.0966</v>
+        <v>15751.15147</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>20323.70897</v>
+        <v>18748.71117</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>34518.62928</v>
+        <v>32879.44337</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>21028.03056</v>
+        <v>18285.50119</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>37042.56304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>36228.11534</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>26971.992</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>295.28728</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>855.318</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>838.1562299999999</v>
@@ -2831,7 +2977,7 @@
         <v>875.25158</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1491.29039</v>
+        <v>1428.22459</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>234.86518</v>
@@ -2840,178 +2986,201 @@
         <v>924.73222</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1071.38371</v>
+        <v>893.61639</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>662.6609599999999</v>
+        <v>656.94251</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>922.01496</v>
+        <v>913.27584</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>666.8689899999999</v>
+        <v>550.6581600000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2809.60595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2808.65595</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>697.494</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4967.910470000001</v>
+        <v>4093.24268</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11039.99359</v>
+        <v>6011.90395</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>131255.22613</v>
+        <v>128948.73813</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>16047.63237</v>
+        <v>15859.53841</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>36026.16422999999</v>
+        <v>34507.72098</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17554.975</v>
+        <v>17136.87952</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>18214.57487</v>
+        <v>14599.39706</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>19661.04801</v>
+        <v>18091.76866</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>33596.61432</v>
+        <v>31966.16753</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>20361.16157</v>
+        <v>17734.84303</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>33937.66981</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>33124.17211</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25419.18</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-9508.003710000001</v>
+        <v>1964.44656</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11108.53828</v>
+        <v>17089.84926</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-69730.58098</v>
+        <v>-27218.80119</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>226446.55828</v>
+        <v>223638.59918</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>64461.44707</v>
+        <v>33566.09387</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>211056.31021</v>
+        <v>181916.39785</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>223706.29736</v>
+        <v>163510.56514</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>223793.77533</v>
+        <v>141689.74816</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>220440.53758</v>
+        <v>212439.93407</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>151132.31192</v>
+        <v>158360.36305</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10556.5157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4085.14214</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-126186.82</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5921.97529</v>
+        <v>5295.04691</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6097.20089</v>
+        <v>5449.21375</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>21139.43817</v>
+        <v>20669.10081</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>40310.95232</v>
+        <v>37364.81808</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15299.12364</v>
+        <v>13103.14033</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40072.55356</v>
+        <v>37720.5131</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>45961.62728</v>
+        <v>41226.53392</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>43975.18265</v>
+        <v>41573.23340999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>51067.40952</v>
+        <v>46524.04411</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>56638.83394</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>34551.2041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>33266.11144</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>16724.119</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-15429.979</v>
+        <v>-3330.60035</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5011.33739</v>
+        <v>11640.63551</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-90870.01915000001</v>
+        <v>-47887.902</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>186135.60596</v>
+        <v>186273.7811</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>49162.32343</v>
+        <v>20462.95354</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>170983.75665</v>
+        <v>144195.88475</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>177744.67008</v>
+        <v>122284.03122</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>179818.59268</v>
+        <v>100116.51475</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>169373.12806</v>
+        <v>165915.88996</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>94493.47798000001</v>
+        <v>101721.52911</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-23994.6884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-29180.9693</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-142910.939</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>19</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>41</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>